--- a/data/simulation_results/sensitivity/v1.3_Comp0_fcr0.012_batt129.6_lvl1_peak86.08.xlsx
+++ b/data/simulation_results/sensitivity/v1.3_Comp0_fcr0.012_batt129.6_lvl1_peak86.08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,16 +459,6 @@
           <t>elec cost</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PI (size x0.9)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>PI (size x1.1)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -491,12 +481,6 @@
       <c r="F2" t="n">
         <v>29527.84339032153</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.694872581044413</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.567762411849527</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -519,12 +503,6 @@
       <c r="F3" t="n">
         <v>29527.84339032153</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.694872581044413</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.567762411849527</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -547,12 +525,6 @@
       <c r="F4" t="n">
         <v>29527.84339032153</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.694872581044413</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.567762411849527</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -575,12 +547,6 @@
       <c r="F5" t="n">
         <v>29527.84339032153</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.694872581044413</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.567762411849527</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -603,12 +569,6 @@
       <c r="F6" t="n">
         <v>29527.84339032153</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.694872581044413</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.567762411849527</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -631,12 +591,6 @@
       <c r="F7" t="n">
         <v>29527.84339032153</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.537861049955428</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.463423474147129</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,12 +613,6 @@
       <c r="F8" t="n">
         <v>29531.12762358974</v>
       </c>
-      <c r="G8" t="n">
-        <v>-0.3354973545513041</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.4626075237461876</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -687,12 +635,6 @@
       <c r="F9" t="n">
         <v>29509.44062499999</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.034011027444934</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.032394099054687</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -714,12 +656,6 @@
       </c>
       <c r="F10" t="n">
         <v>29514.44562499999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
